--- a/biology/Médecine/Lymphome_anaplasique_à_grandes_cellules/Lymphome_anaplasique_à_grandes_cellules.xlsx
+++ b/biology/Médecine/Lymphome_anaplasique_à_grandes_cellules/Lymphome_anaplasique_à_grandes_cellules.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lymphome_anaplasique_%C3%A0_grandes_cellules</t>
+          <t>Lymphome_anaplasique_à_grandes_cellules</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le lymphome anaplasique à grandes cellules (LAGC) est un lymphome non Hodgkinien à cellules T périphériques (LTP)[1], rare et agressif, appartenant au groupe des syndromes lymphoprolifératifs CD30 positifs et affectant les ganglions lymphatiques, médiastinaux ou abdominaux avec extension possible à des sites extranodaux[2]. 
-Il comprend deux sous-types, selon l'expression ou non d'une protéine appelée kinase du lymphome anaplasique (ALK)[3] : 
-le LAGC ALK-positif (CIM-10 C84.6) dans lequel le gène ALK du récepteur de la tyrosine kinase du lymphome anaplasique est surexprimé[4] ;
-le LAGC ALK-négatif (CIM-10 C84.7)[5].
-Le LAGC peut se former dans le tissu cicatriciel entourant un implant mammaire, surtout s'il est texturé. On parle alors de LAGC associé à un implant mammaire ou LAGC-AIM (cf. enquête « Implant files »). Ces lymphomes sont pour la plupart ALK-négatifs et CD30-positifs[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lymphome anaplasique à grandes cellules (LAGC) est un lymphome non Hodgkinien à cellules T périphériques (LTP), rare et agressif, appartenant au groupe des syndromes lymphoprolifératifs CD30 positifs et affectant les ganglions lymphatiques, médiastinaux ou abdominaux avec extension possible à des sites extranodaux. 
+Il comprend deux sous-types, selon l'expression ou non d'une protéine appelée kinase du lymphome anaplasique (ALK) : 
+le LAGC ALK-positif (CIM-10 C84.6) dans lequel le gène ALK du récepteur de la tyrosine kinase du lymphome anaplasique est surexprimé ;
+le LAGC ALK-négatif (CIM-10 C84.7).
+Le LAGC peut se former dans le tissu cicatriciel entourant un implant mammaire, surtout s'il est texturé. On parle alors de LAGC associé à un implant mammaire ou LAGC-AIM (cf. enquête « Implant files »). Ces lymphomes sont pour la plupart ALK-négatifs et CD30-positifs.
 </t>
         </is>
       </c>
